--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/UTAH_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/UTAH_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1313"/>
+  <dimension ref="A1:D1307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C57">
@@ -1576,13 +1576,13 @@
         <v>12</v>
       </c>
       <c r="D91">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C92">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C94">
@@ -1816,7 +1816,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C110">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C111">
@@ -1907,7 +1907,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C117">
@@ -2203,7 +2203,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C139">
@@ -2229,7 +2229,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C145">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C160">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C170">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C173">
@@ -2733,7 +2733,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C179">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C180">
@@ -2759,7 +2759,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C181">
@@ -2876,13 +2876,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C190">
@@ -2908,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C192">
@@ -2921,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C193">
@@ -2999,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C199">
@@ -3077,7 +3076,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C205">
@@ -3116,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C208">
@@ -3136,7 +3135,7 @@
         <v>12</v>
       </c>
       <c r="D209">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="210">
@@ -3181,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C213">
@@ -3246,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C218">
@@ -3415,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C231">
@@ -3545,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C241">
@@ -3558,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C242">
@@ -3584,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C244">
@@ -3597,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C245">
@@ -3617,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="247">
@@ -3714,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C254">
@@ -3857,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C265">
@@ -3935,7 +3934,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C271">
@@ -3948,7 +3947,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C272">
@@ -3961,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C273">
@@ -4096,7 +4095,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C283">
@@ -4109,7 +4108,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C284">
@@ -4122,7 +4121,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C285">
@@ -4200,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C291">
@@ -4252,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C295">
@@ -4298,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="D298">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="299">
@@ -4356,7 +4355,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C303">
@@ -4408,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C307">
@@ -4434,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C309">
@@ -4460,7 +4459,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C311">
@@ -4486,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C313">
@@ -4512,7 +4511,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C315">
@@ -4564,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C319">
@@ -4634,7 +4633,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C324">
@@ -4673,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C327">
@@ -4686,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C328">
@@ -4738,7 +4737,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C332">
@@ -4751,7 +4750,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C333">
@@ -4764,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C334">
@@ -4803,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C337">
@@ -4816,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C338">
@@ -4829,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C339">
@@ -4842,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C340">
@@ -4907,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C345">
@@ -4920,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C346">
@@ -4959,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C349">
@@ -4972,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C350">
@@ -5037,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C355">
@@ -5050,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C356">
@@ -5076,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C358">
@@ -5115,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C361">
@@ -5154,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C364">
@@ -5323,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C377">
@@ -5349,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C379">
@@ -5375,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C381">
@@ -5401,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C383">
@@ -5440,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C386">
@@ -5453,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C387">
@@ -5601,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C398">
@@ -5679,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C404">
@@ -5692,14 +5691,14 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C405">
         <v>12</v>
       </c>
       <c r="D405">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="406">
@@ -5757,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C410">
@@ -5809,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C414">
@@ -5848,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C417">
@@ -5913,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C422">
@@ -5926,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C423">
@@ -5939,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C424">
@@ -5965,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C426">
@@ -6004,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C429">
@@ -6017,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C430">
@@ -6082,7 +6081,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C435">
@@ -6095,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C436">
@@ -6121,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C438">
@@ -6186,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C443">
@@ -6199,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C444">
@@ -6212,7 +6211,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C445">
@@ -6238,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C447">
@@ -6251,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C448">
@@ -6321,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C453">
@@ -6334,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C454">
@@ -6386,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C458">
@@ -6425,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C461">
@@ -6451,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C463">
@@ -6529,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C469">
@@ -6620,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C476">
@@ -6685,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C481">
@@ -6776,7 +6775,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C488">
@@ -6789,7 +6788,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C489">
@@ -6802,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C490">
@@ -6854,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C494">
@@ -6932,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C500">
@@ -6945,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C501">
@@ -7036,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C508">
@@ -7101,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C513">
@@ -7114,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C514">
@@ -7140,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C516">
@@ -7153,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C517">
@@ -7192,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C520">
@@ -7218,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C522">
@@ -7231,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C523">
@@ -7244,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C524">
@@ -7283,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C527">
@@ -7296,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C528">
@@ -7374,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C534">
@@ -7387,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C535">
@@ -7426,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C538">
@@ -7439,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C539">
@@ -7582,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C550">
@@ -7595,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C551">
@@ -7608,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C552">
@@ -7621,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C553">
@@ -7686,7 +7685,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C558">
@@ -7725,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C561">
@@ -7738,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C562">
@@ -7751,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C563">
@@ -8055,7 +8054,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C586">
@@ -8081,7 +8080,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C588">
@@ -8881,7 +8880,7 @@
         <v>12</v>
       </c>
       <c r="D649">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="650">
@@ -8913,7 +8912,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C652">
@@ -9230,7 +9229,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C676">
@@ -9328,7 +9327,7 @@
         <v>12</v>
       </c>
       <c r="D683">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="684">
@@ -9373,7 +9372,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C687">
@@ -9451,7 +9450,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C693">
@@ -9542,7 +9541,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C700">
@@ -9599,7 +9598,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C704">
@@ -9612,7 +9611,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C705">
@@ -9664,14 +9663,14 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C709">
         <v>12</v>
       </c>
       <c r="D709">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="710">
@@ -9755,7 +9754,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C716">
@@ -9955,7 +9954,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C731">
@@ -9999,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C734">
@@ -10025,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C736">
@@ -10051,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C738">
@@ -10077,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C740">
@@ -10090,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C741">
@@ -10103,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C742">
@@ -10116,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C743">
@@ -10129,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C744">
@@ -10142,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C745">
@@ -10155,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C746">
@@ -10168,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C747">
@@ -10246,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C753">
@@ -10259,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C754">
@@ -10298,7 +10297,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C757">
@@ -10324,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C759">
@@ -10337,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C760">
@@ -10350,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C761">
@@ -10662,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C785">
@@ -11026,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C813">
@@ -11208,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C827">
@@ -11286,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C833">
@@ -11559,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C854">
@@ -11624,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C859">
@@ -11637,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C860">
@@ -11663,14 +11662,14 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C862">
         <v>12</v>
       </c>
       <c r="D862">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="863">
@@ -11689,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C864">
@@ -11702,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C865">
@@ -11715,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C866">
@@ -11728,7 +11727,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C867">
@@ -11767,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C870">
@@ -11831,7 +11830,7 @@
         <v>12</v>
       </c>
       <c r="D874">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="875">
@@ -11941,7 +11940,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C883">
@@ -11980,7 +11979,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C886">
@@ -12084,7 +12083,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C894">
@@ -12175,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C901">
@@ -12292,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C910">
@@ -12331,14 +12330,14 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C913">
         <v>12</v>
       </c>
       <c r="D913">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="914">
@@ -12422,7 +12421,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C920">
@@ -12500,7 +12499,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C926">
@@ -12695,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C941">
@@ -12721,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C943">
@@ -12786,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C948">
@@ -12864,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C954">
@@ -12877,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C955">
@@ -12929,7 +12928,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C959">
@@ -12955,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C961">
@@ -13020,7 +13019,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C966">
@@ -13176,7 +13175,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C978">
@@ -13324,7 +13323,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C989">
@@ -13337,7 +13336,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C990">
@@ -13376,7 +13375,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C993">
@@ -13402,7 +13401,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C995">
@@ -13428,7 +13427,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C997">
@@ -13531,7 +13530,7 @@
         <v>12</v>
       </c>
       <c r="D1004">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="1005">
@@ -13568,7 +13567,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1007">
@@ -13620,7 +13619,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1011">
@@ -13698,7 +13697,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1017">
@@ -13763,7 +13762,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1022">
@@ -13802,7 +13801,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1025">
@@ -13841,7 +13840,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1028">
@@ -13880,7 +13879,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1031">
@@ -13893,7 +13892,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1032">
@@ -13970,7 +13969,7 @@
         <v>12</v>
       </c>
       <c r="D1037">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="1038">
@@ -14178,7 +14177,7 @@
         <v>12</v>
       </c>
       <c r="D1053">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="1054">
@@ -14501,7 +14500,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1078">
@@ -14740,7 +14739,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1096">
@@ -14927,7 +14926,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1110">
@@ -15062,7 +15061,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1120">
@@ -15114,7 +15113,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1124">
@@ -15127,7 +15126,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1125">
@@ -15166,7 +15165,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1128">
@@ -15392,7 +15391,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1145">
@@ -15431,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1148">
@@ -15496,7 +15495,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1153">
@@ -15509,7 +15508,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1154">
@@ -15535,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1156">
@@ -15607,7 +15606,7 @@
         <v>12</v>
       </c>
       <c r="D1161">
-        <v>0.0009405125793557489</v>
+        <v>0.0009405125793557488</v>
       </c>
     </row>
     <row r="1162">
@@ -15639,7 +15638,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1164">
@@ -15808,7 +15807,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1177">
@@ -15821,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1178">
@@ -15834,7 +15833,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1179">
@@ -15860,7 +15859,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1181">
@@ -15964,7 +15963,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1189">
@@ -16003,7 +16002,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1192">
@@ -16042,7 +16041,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1195">
@@ -16068,7 +16067,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1197">
@@ -16107,7 +16106,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1200">
@@ -16211,7 +16210,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1208">
@@ -16237,7 +16236,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1210">
@@ -16614,7 +16613,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1239">
@@ -16962,7 +16961,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1265">
@@ -16988,7 +16987,7 @@
     <row r="1267">
       <c r="B1267" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1267">
@@ -17183,7 +17182,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1282">
@@ -17235,7 +17234,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1286">
@@ -17248,7 +17247,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1287">
@@ -17378,7 +17377,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1297">
@@ -17391,7 +17390,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1298">
@@ -17417,7 +17416,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1300">
@@ -17516,41 +17515,6 @@
       </c>
       <c r="D1307">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1309">
-      <c r="A1309" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1310">
-      <c r="A1310" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1311">
-      <c r="A1311" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1312">
-      <c r="A1312" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1313">
-      <c r="A1313" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
